--- a/biology/Virologie/Sunshinevirus/Sunshinevirus.xlsx
+++ b/biology/Virologie/Sunshinevirus/Sunshinevirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Sunviridae sont une famille de virus à ARN de polarité négative de l'ordre des Mononegavirales[2]. Leurs hôtes naturels sont des serpents. La famille ne contient qu'un seul genre, Sunshinevirus, et l'unique espèce Reptile sunshinevirus 1. Elle a été créée pour le virus de la Sunshine Coast (Sunshine Coast virus, SunCV), un virus découvert chez des pythons australiens[3],[4]. Le nom provient de la région dans laquelle il a été isolé : la Sunshine Coast au Queensland (Australie)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Sunviridae sont une famille de virus à ARN de polarité négative de l'ordre des Mononegavirales. Leurs hôtes naturels sont des serpents. La famille ne contient qu'un seul genre, Sunshinevirus, et l'unique espèce Reptile sunshinevirus 1. Elle a été créée pour le virus de la Sunshine Coast (Sunshine Coast virus, SunCV), un virus découvert chez des pythons australiens,. Le nom provient de la région dans laquelle il a été isolé : la Sunshine Coast au Queensland (Australie).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Génome</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sunshinevirus ont un génome composé d'ARN simple brin de polarité négative non segmenté. La longueur totale du génome est de 17 kilobases. Il code sept protéines[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sunshinevirus ont un génome composé d'ARN simple brin de polarité négative non segmenté. La longueur totale du génome est de 17 kilobases. Il code sept protéines.
 </t>
         </is>
       </c>
